--- a/fibo/fibo_results.xlsx
+++ b/fibo/fibo_results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewisfogden/Dev/benchmarks/fibo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B05FCD-C755-0548-84AD-3361B70DA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3CA62-7B27-7741-A604-BEACF84C5F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{4D84BB6D-D832-F742-80F7-3F7AF40EF4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,10 +233,10 @@
     <t>"Overhead"</t>
   </si>
   <si>
-    <t>Calculation Time</t>
-  </si>
-  <si>
-    <t>Overall Execution</t>
+    <t>Calculation Time (ms)</t>
+  </si>
+  <si>
+    <t>Overall Execution (ms)</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Calculation Time</c:v>
+                  <c:v>Calculation Time (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,7 +531,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Overall Execution</c:v>
+                  <c:v>Overall Execution (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1761,7 +1761,7 @@
   <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1769,8 +1769,8 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>Codon Execute</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" ref="O13:O14" si="5">E14*1000/IF(F14="ns",$H$2,1)</f>
+        <f t="shared" ref="O14" si="5">E14*1000/IF(F14="ns",$H$2,1)</f>
         <v>4.1999999999999998E-5</v>
       </c>
       <c r="P14" s="2">
